--- a/data/HargaRumah.xlsx
+++ b/data/HargaRumah.xlsx
@@ -2,72 +2,151 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\OneDrive\Documents\KULIAH\semester3\PDSD\PDS-SCRAPING\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FB3470-DBD6-46DD-8A12-AADF76A14C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32BECC-4B82-4BF1-9055-944333961C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19F273A9-1A59-4933-9A63-57233646440D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Tipe</t>
-  </si>
-  <si>
-    <t>Rumah Sederhana</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="32">
+  <si>
+    <t>Kota</t>
   </si>
   <si>
     <t>Harga</t>
   </si>
   <si>
-    <t>Rumah Menengah Bawah</t>
-  </si>
-  <si>
-    <t>Rumah Menengah</t>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Jakarta Selatan</t>
+  </si>
+  <si>
+    <t>Jakarta Pusat</t>
+  </si>
+  <si>
+    <t>Jakarta Utara</t>
+  </si>
+  <si>
+    <t>Jakarta Timur</t>
+  </si>
+  <si>
+    <t>Jakarta Barat</t>
+  </si>
+  <si>
+    <t>Depok</t>
+  </si>
+  <si>
+    <t>Bekasi</t>
+  </si>
+  <si>
+    <t>Tanggerang Selatan</t>
+  </si>
+  <si>
+    <t>Tangerang</t>
+  </si>
+  <si>
+    <t>Kabupaten Tangerang</t>
+  </si>
+  <si>
+    <t>Kabupaten Bekasi</t>
+  </si>
+  <si>
+    <t>Kabupaten Sumedang</t>
+  </si>
+  <si>
+    <t>Bogor</t>
+  </si>
+  <si>
+    <t>Kabupaten Bogor</t>
+  </si>
+  <si>
+    <t>Yogyakarta</t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Kabupaten Sleman</t>
+  </si>
+  <si>
+    <t>Serang</t>
+  </si>
+  <si>
+    <t>Malang</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>Solo (Surakarta)</t>
+  </si>
+  <si>
+    <t>Denpasar</t>
+  </si>
+  <si>
+    <t>Kabupaten Sukoharjo</t>
+  </si>
+  <si>
+    <t>Kabupaten Badung</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>Kelas 1</t>
+  </si>
+  <si>
+    <t>Kelas 2</t>
+  </si>
+  <si>
+    <t>Kelas 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -80,12 +159,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -103,14 +197,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -131,150 +247,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,58 +439,893 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72B4797-01D1-4420-83C7-1F1A795CCCEE}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>170000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="5">
+        <v>575000000</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>875000000</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1400000000</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="5">
+        <v>1600000000</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2500000000</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3200000000</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B8" s="5">
+        <v>1400000000</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2300000000</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3500000000</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1100000000</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2700000000</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2800000000</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <v>655000000</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>825000000</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1400000000</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1200000000</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2200000000</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2700000000</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>650000000</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>920000000</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1100000000</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5">
+        <v>850000000</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1100000000</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1400000000</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
+        <v>850000000</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2000000000</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2600000000</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5">
+        <v>750000000</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="5">
+        <v>950000000</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1300000000</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5">
+        <v>600000000</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5">
         <v>800000000</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5">
+        <v>950000000</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5">
+        <v>575000000</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5">
+        <v>850000000</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1400000000</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="5">
+        <v>600000000</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="5">
+        <v>750000000</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1400000000</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="5">
+        <v>600000000</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1200000000</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2500000000</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="5">
+        <v>700000000</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1200000000</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2300000000</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="5">
+        <v>715000000</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="5">
+        <v>950000000</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="5">
+        <v>600000000</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1200000000</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1400000000</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="5">
+        <v>490000000</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="5">
+        <v>670000000</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1400000000</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="5">
+        <v>500000000</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="5">
+        <v>750000000</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5">
+        <v>850000000</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="5">
+        <v>600000000</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="5">
+        <v>800000000</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="5">
+        <v>960000000</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="5">
+        <v>500000000</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1300000000</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1600000000</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="5">
+        <v>600000000</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1500000000</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2600000000</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="5">
+        <v>600000000</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="5">
+        <v>750000000</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="5">
+        <v>900000000</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="5">
+        <v>900000000</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1300000000</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2000000000</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="5">
+        <v>530000000</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="5">
+        <v>750000000</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="5">
+        <v>850000000</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="5">
+        <v>710000000</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="5">
+        <v>850000000</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="5">
+        <v>955000000</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
